--- a/data/n2v/tables/model-1200-1325-20230828-71.xlsx
+++ b/data/n2v/tables/model-1200-1325-20230828-71.xlsx
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
